--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1229.91664</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3415.71557</v>
-      </c>
-      <c r="D2" t="n">
-        <v>310.90318</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.16361</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97.38141</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2270.6524</v>
-      </c>
-      <c r="H2" t="n">
-        <v>481.181</v>
-      </c>
-      <c r="I2" t="n">
-        <v>984.20117</v>
-      </c>
-      <c r="J2" t="n">
-        <v>192.01996</v>
-      </c>
-      <c r="K2" t="n">
-        <v>370.62313</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35282.86</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43.80449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.70701</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1807.0977</v>
-      </c>
-      <c r="P2" t="n">
-        <v>882.38022</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>110.04634</v>
-      </c>
-      <c r="R2" t="n">
-        <v>328.00541</v>
-      </c>
-      <c r="S2" t="n">
-        <v>104.70531</v>
-      </c>
-      <c r="T2" t="n">
-        <v>132.29277</v>
-      </c>
-      <c r="U2" t="n">
-        <v>339.12723</v>
-      </c>
-      <c r="V2" t="n">
-        <v>828.88257</v>
-      </c>
-      <c r="W2" t="n">
-        <v>142.95812</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1145.26692</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3630.63541</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3151.29036</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1843.17841</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>182.77969</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1011.81533</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>875.19255</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1561.36154</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>232.8146</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>558.83741</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>487.94453</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1201.01574</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>151.49602</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>380.59233</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>664.80893</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>906.65914</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2783.08152</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>64.68564000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1187.79758</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3939.9341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>386.27111</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.16019</v>
-      </c>
-      <c r="F3" t="n">
-        <v>126.03243</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2387.82627</v>
-      </c>
-      <c r="H3" t="n">
-        <v>413.91918</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1207.0744</v>
-      </c>
-      <c r="J3" t="n">
-        <v>232.60662</v>
-      </c>
-      <c r="K3" t="n">
-        <v>445.19477</v>
-      </c>
-      <c r="L3" t="n">
-        <v>39102.67</v>
-      </c>
-      <c r="M3" t="n">
-        <v>59.1294</v>
-      </c>
-      <c r="N3" t="n">
-        <v>91.54217</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1890.08675</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1006.69948</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>110.98497</v>
-      </c>
-      <c r="R3" t="n">
-        <v>388.17802</v>
-      </c>
-      <c r="S3" t="n">
-        <v>116.89126</v>
-      </c>
-      <c r="T3" t="n">
-        <v>134.64857</v>
-      </c>
-      <c r="U3" t="n">
-        <v>371.13776</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1313.3077</v>
-      </c>
-      <c r="W3" t="n">
-        <v>153.32124</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1258.76512</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3694.28454</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4109.33953</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2112.72304</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>214.19977</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>978.12713</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>835.34766</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1580.00426</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>254.66841</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>664.06109</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>559.8375600000001</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1353.58278</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>154.57311</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>425.95341</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>736.7234</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>978.7895600000001</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2894.54328</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>64.53959999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1293.44454</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4455.84685</v>
-      </c>
-      <c r="D4" t="n">
-        <v>405.55245</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.15744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>132.65671</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2510.48994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>410.77098</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1287.2707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>240.41889</v>
-      </c>
-      <c r="K4" t="n">
-        <v>499.42475</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41911.77</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57.20287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>107.82737</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2040.80888</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1020.26957</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>108.97055</v>
-      </c>
-      <c r="R4" t="n">
-        <v>388.73664</v>
-      </c>
-      <c r="S4" t="n">
-        <v>130.94428</v>
-      </c>
-      <c r="T4" t="n">
-        <v>135.34429</v>
-      </c>
-      <c r="U4" t="n">
-        <v>386.04578</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1415.618</v>
-      </c>
-      <c r="W4" t="n">
-        <v>175.33929</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1413.28864</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3886.69187</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4560.47465</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2276.74155</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>233.21598</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>983.3475</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>850.2047700000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1623.64873</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>278.68288</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>698.36235</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>619.1834700000001</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1394.46284</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>160.47033</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>517.51974</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>837.31287</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1022.93256</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3004.01648</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>72.72757</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
